--- a/artfynd/A 33062-2023.xlsx
+++ b/artfynd/A 33062-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY18"/>
+  <dimension ref="A1:AY22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2900,6 +2900,476 @@
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>111926769</v>
+      </c>
+      <c r="B19" t="n">
+        <v>90658</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>4361</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Orange taggsvamp</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Hydnellum aurantiacum</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Upplands Väsby (Upplands Väsby), Upl</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>663476.3239106013</v>
+      </c>
+      <c r="R19" t="n">
+        <v>6602651.048317727</v>
+      </c>
+      <c r="S19" t="n">
+        <v>10</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Upplands Väsby</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Ed</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>Hans Bärring</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>Hans Bärring</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>111929648</v>
+      </c>
+      <c r="B20" t="n">
+        <v>90655</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>150</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Grangråticka</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Boletopsis leucomelaena</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>(Pers.) Fayod</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Upplands Väsby (Upplands Väsby), Upl</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>663509.4011657666</v>
+      </c>
+      <c r="R20" t="n">
+        <v>6602732.737488487</v>
+      </c>
+      <c r="S20" t="n">
+        <v>10</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Upplands Väsby</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Ed</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>Hans Bärring</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>Hans Bärring</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>111927215</v>
+      </c>
+      <c r="B21" t="n">
+        <v>90658</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>4361</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Orange taggsvamp</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Hydnellum aurantiacum</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Upplands Väsby (Upplands Väsby), Upl</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>663485.6413922446</v>
+      </c>
+      <c r="R21" t="n">
+        <v>6602647.390513759</v>
+      </c>
+      <c r="S21" t="n">
+        <v>10</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Upplands Väsby</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Ed</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>Hans Bärring</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>Hans Bärring</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>111926622</v>
+      </c>
+      <c r="B22" t="n">
+        <v>90658</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>4361</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Orange taggsvamp</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Hydnellum aurantiacum</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Upplands Väsby (Upplands Väsby), Upl</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>663452.3464515609</v>
+      </c>
+      <c r="R22" t="n">
+        <v>6602675.90838708</v>
+      </c>
+      <c r="S22" t="n">
+        <v>10</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Upplands Väsby</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Ed</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>Hans Bärring</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>Hans Bärring</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 33062-2023.xlsx
+++ b/artfynd/A 33062-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY22"/>
+  <dimension ref="A1:AY30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3015,10 +3015,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111929648</v>
+        <v>111926622</v>
       </c>
       <c r="B20" t="n">
-        <v>90655</v>
+        <v>90658</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -3027,37 +3027,28 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>150</v>
+        <v>4361</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Grangråticka</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Boletopsis leucomelaena</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Pers.) Fayod</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -3065,10 +3056,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>663509.4011657666</v>
+        <v>663452.3464515609</v>
       </c>
       <c r="R20" t="n">
-        <v>6602732.737488487</v>
+        <v>6602675.90838708</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -3137,10 +3128,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111927215</v>
+        <v>111929648</v>
       </c>
       <c r="B21" t="n">
-        <v>90658</v>
+        <v>90655</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3149,25 +3140,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4361</v>
+        <v>150</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Grangråticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Boletopsis leucomelaena</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Pers.) Fayod</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -3187,10 +3178,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>663485.6413922446</v>
+        <v>663509.4011657666</v>
       </c>
       <c r="R21" t="n">
-        <v>6602647.390513759</v>
+        <v>6602732.737488487</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3259,7 +3250,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111926622</v>
+        <v>111927215</v>
       </c>
       <c r="B22" t="n">
         <v>90658</v>
@@ -3292,7 +3283,16 @@
           <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3300,10 +3300,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>663452.3464515609</v>
+        <v>663485.6413922446</v>
       </c>
       <c r="R22" t="n">
-        <v>6602675.90838708</v>
+        <v>6602647.390513759</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3369,6 +3369,990 @@
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>112083737</v>
+      </c>
+      <c r="B23" t="n">
+        <v>98535</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>222498</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Hepatica nobilis</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Upplands Väsby (Upplands Väsby), Upl</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>663545.1917381487</v>
+      </c>
+      <c r="R23" t="n">
+        <v>6602752.072187248</v>
+      </c>
+      <c r="S23" t="n">
+        <v>30</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Upplands Väsby</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Ed</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>Hans Bärring</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>Hans Bärring</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>112083804</v>
+      </c>
+      <c r="B24" t="n">
+        <v>98535</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>222498</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Hepatica nobilis</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Upplands Väsby (Upplands Väsby), Upl</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>663571.7306570449</v>
+      </c>
+      <c r="R24" t="n">
+        <v>6602738.498618284</v>
+      </c>
+      <c r="S24" t="n">
+        <v>10</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Upplands Väsby</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Ed</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>Hans Bärring</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>Hans Bärring</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>112083991</v>
+      </c>
+      <c r="B25" t="n">
+        <v>98535</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>222498</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Hepatica nobilis</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Upplands Väsby (Upplands Väsby), Upl</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>663568.3519142884</v>
+      </c>
+      <c r="R25" t="n">
+        <v>6602664.1969273</v>
+      </c>
+      <c r="S25" t="n">
+        <v>10</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Upplands Väsby</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Ed</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>Hans Bärring</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>Hans Bärring</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>112083905</v>
+      </c>
+      <c r="B26" t="n">
+        <v>98535</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>222498</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Hepatica nobilis</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Upplands Väsby (Upplands Väsby), Upl</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>663567.9108240836</v>
+      </c>
+      <c r="R26" t="n">
+        <v>6602721.063539478</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Upplands Väsby</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Ed</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>Hans Bärring</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>Hans Bärring</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>112084535</v>
+      </c>
+      <c r="B27" t="n">
+        <v>88899</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>3286</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Flattoppad klubbsvamp</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Clavariadelphus truncatus</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>(Quél.) Donk</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Upplands Väsby (Upplands Väsby), Upl</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>663374.2695844367</v>
+      </c>
+      <c r="R27" t="n">
+        <v>6602611.054278261</v>
+      </c>
+      <c r="S27" t="n">
+        <v>10</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Upplands Väsby</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Ed</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>11:46</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>11:46</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>Sötaktig mild smak (ej bitter)</t>
+        </is>
+      </c>
+      <c r="AD27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>Hans Bärring</t>
+        </is>
+      </c>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>Hans Bärring</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>112084114</v>
+      </c>
+      <c r="B28" t="n">
+        <v>98535</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>222498</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Hepatica nobilis</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Upplands Väsby (Upplands Väsby), Upl</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>663576.8087203993</v>
+      </c>
+      <c r="R28" t="n">
+        <v>6602715.356141716</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Upplands Väsby</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Ed</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>Hans Bärring</t>
+        </is>
+      </c>
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>Hans Bärring</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>112083958</v>
+      </c>
+      <c r="B29" t="n">
+        <v>98535</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>222498</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Hepatica nobilis</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Upplands Väsby (Upplands Väsby), Upl</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>663551.019940288</v>
+      </c>
+      <c r="R29" t="n">
+        <v>6602700.011799707</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Upplands Väsby</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Ed</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>Hans Bärring</t>
+        </is>
+      </c>
+      <c r="AX29" t="inlineStr">
+        <is>
+          <t>Hans Bärring</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>112084040</v>
+      </c>
+      <c r="B30" t="n">
+        <v>98535</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>222498</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Hepatica nobilis</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Upplands Väsby (Upplands Väsby), Upl</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>663584.9559231531</v>
+      </c>
+      <c r="R30" t="n">
+        <v>6602703.52117154</v>
+      </c>
+      <c r="S30" t="n">
+        <v>10</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Upplands Väsby</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Ed</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr">
+        <is>
+          <t>Hans Bärring</t>
+        </is>
+      </c>
+      <c r="AX30" t="inlineStr">
+        <is>
+          <t>Hans Bärring</t>
+        </is>
+      </c>
+      <c r="AY30" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 33062-2023.xlsx
+++ b/artfynd/A 33062-2023.xlsx
@@ -3015,7 +3015,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111926622</v>
+        <v>111927215</v>
       </c>
       <c r="B20" t="n">
         <v>90658</v>
@@ -3048,7 +3048,16 @@
           <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -3056,10 +3065,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>663452.3464515609</v>
+        <v>663485.6413922446</v>
       </c>
       <c r="R20" t="n">
-        <v>6602675.90838708</v>
+        <v>6602647.390513759</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -3250,7 +3259,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111927215</v>
+        <v>111926622</v>
       </c>
       <c r="B22" t="n">
         <v>90658</v>
@@ -3283,16 +3292,7 @@
           <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3300,10 +3300,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>663485.6413922446</v>
+        <v>663452.3464515609</v>
       </c>
       <c r="R22" t="n">
-        <v>6602647.390513759</v>
+        <v>6602675.90838708</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3372,10 +3372,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112083737</v>
+        <v>112084535</v>
       </c>
       <c r="B23" t="n">
-        <v>98535</v>
+        <v>88899</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3384,35 +3384,35 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>222498</v>
+        <v>3286</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>80</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -3422,13 +3422,13 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>663545.1917381487</v>
+        <v>663374.2695844367</v>
       </c>
       <c r="R23" t="n">
-        <v>6602752.072187248</v>
+        <v>6602611.054278261</v>
       </c>
       <c r="S23" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:46</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3467,7 +3467,12 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:46</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>Sötaktig mild smak (ej bitter)</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3494,7 +3499,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112083804</v>
+        <v>112084040</v>
       </c>
       <c r="B24" t="n">
         <v>98535</v>
@@ -3527,16 +3532,7 @@
           <t>Schreb.</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3544,10 +3540,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>663571.7306570449</v>
+        <v>663584.9559231531</v>
       </c>
       <c r="R24" t="n">
-        <v>6602738.498618284</v>
+        <v>6602703.52117154</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3616,7 +3612,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112083991</v>
+        <v>112084114</v>
       </c>
       <c r="B25" t="n">
         <v>98535</v>
@@ -3651,28 +3647,32 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr"/>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr">
         <is>
           <t>Upplands Väsby (Upplands Väsby), Upl</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>663568.3519142884</v>
+        <v>663576.8087203993</v>
       </c>
       <c r="R25" t="n">
-        <v>6602664.1969273</v>
+        <v>6602715.356141716</v>
       </c>
       <c r="S25" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3864,10 +3864,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112084535</v>
+        <v>112083991</v>
       </c>
       <c r="B27" t="n">
-        <v>88899</v>
+        <v>98535</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3876,35 +3876,35 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>3286</v>
+        <v>222498</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>300</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>stjälkar/strån/skott</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
@@ -3914,10 +3914,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>663374.2695844367</v>
+        <v>663568.3519142884</v>
       </c>
       <c r="R27" t="n">
-        <v>6602611.054278261</v>
+        <v>6602664.1969273</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3949,7 +3949,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>11:46</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3959,12 +3959,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>11:46</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>Sötaktig mild smak (ej bitter)</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3991,7 +3986,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112084114</v>
+        <v>112083804</v>
       </c>
       <c r="B28" t="n">
         <v>98535</v>
@@ -4026,32 +4021,28 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>300</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
           <t>Upplands Väsby (Upplands Väsby), Upl</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>663576.8087203993</v>
+        <v>663571.7306570449</v>
       </c>
       <c r="R28" t="n">
-        <v>6602715.356141716</v>
+        <v>6602738.498618284</v>
       </c>
       <c r="S28" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -4117,7 +4108,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112083958</v>
+        <v>112083737</v>
       </c>
       <c r="B29" t="n">
         <v>98535</v>
@@ -4152,32 +4143,28 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>200</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>Upplands Väsby (Upplands Väsby), Upl</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>663551.019940288</v>
+        <v>663545.1917381487</v>
       </c>
       <c r="R29" t="n">
-        <v>6602700.011799707</v>
+        <v>6602752.072187248</v>
       </c>
       <c r="S29" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -4243,7 +4230,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112084040</v>
+        <v>112083958</v>
       </c>
       <c r="B30" t="n">
         <v>98535</v>
@@ -4276,21 +4263,34 @@
           <t>Schreb.</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P30" t="inlineStr">
         <is>
           <t>Upplands Väsby (Upplands Väsby), Upl</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>663584.9559231531</v>
+        <v>663551.019940288</v>
       </c>
       <c r="R30" t="n">
-        <v>6602703.52117154</v>
+        <v>6602700.011799707</v>
       </c>
       <c r="S30" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>

--- a/artfynd/A 33062-2023.xlsx
+++ b/artfynd/A 33062-2023.xlsx
@@ -3986,7 +3986,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112083804</v>
+        <v>112083737</v>
       </c>
       <c r="B28" t="n">
         <v>98535</v>
@@ -4021,7 +4021,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>200</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -4036,13 +4036,13 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>663571.7306570449</v>
+        <v>663545.1917381487</v>
       </c>
       <c r="R28" t="n">
-        <v>6602738.498618284</v>
+        <v>6602752.072187248</v>
       </c>
       <c r="S28" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -4108,7 +4108,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112083737</v>
+        <v>112083804</v>
       </c>
       <c r="B29" t="n">
         <v>98535</v>
@@ -4143,7 +4143,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>300</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -4158,13 +4158,13 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>663545.1917381487</v>
+        <v>663571.7306570449</v>
       </c>
       <c r="R29" t="n">
-        <v>6602752.072187248</v>
+        <v>6602738.498618284</v>
       </c>
       <c r="S29" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>

--- a/artfynd/A 33062-2023.xlsx
+++ b/artfynd/A 33062-2023.xlsx
@@ -2902,7 +2902,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111926769</v>
+        <v>111927215</v>
       </c>
       <c r="B19" t="n">
         <v>90658</v>
@@ -2935,7 +2935,16 @@
           <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2943,10 +2952,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>663476.3239106013</v>
+        <v>663485.6413922446</v>
       </c>
       <c r="R19" t="n">
-        <v>6602651.048317727</v>
+        <v>6602647.390513759</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -3015,10 +3024,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111927215</v>
+        <v>111929648</v>
       </c>
       <c r="B20" t="n">
-        <v>90658</v>
+        <v>90655</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -3027,25 +3036,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4361</v>
+        <v>150</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Grangråticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Boletopsis leucomelaena</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Pers.) Fayod</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -3065,10 +3074,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>663485.6413922446</v>
+        <v>663509.4011657666</v>
       </c>
       <c r="R20" t="n">
-        <v>6602647.390513759</v>
+        <v>6602732.737488487</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -3137,10 +3146,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111929648</v>
+        <v>111926622</v>
       </c>
       <c r="B21" t="n">
-        <v>90655</v>
+        <v>90658</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3149,37 +3158,28 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>150</v>
+        <v>4361</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Grangråticka</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Boletopsis leucomelaena</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Pers.) Fayod</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -3187,10 +3187,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>663509.4011657666</v>
+        <v>663452.3464515609</v>
       </c>
       <c r="R21" t="n">
-        <v>6602732.737488487</v>
+        <v>6602675.90838708</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3259,7 +3259,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111926622</v>
+        <v>111926769</v>
       </c>
       <c r="B22" t="n">
         <v>90658</v>
@@ -3300,10 +3300,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>663452.3464515609</v>
+        <v>663476.3239106013</v>
       </c>
       <c r="R22" t="n">
-        <v>6602675.90838708</v>
+        <v>6602651.048317727</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3372,10 +3372,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112084535</v>
+        <v>112084114</v>
       </c>
       <c r="B23" t="n">
-        <v>88899</v>
+        <v>98535</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3384,51 +3384,55 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3286</v>
+        <v>222498</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr"/>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Upplands Väsby (Upplands Väsby), Upl</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>663374.2695844367</v>
+        <v>663576.8087203993</v>
       </c>
       <c r="R23" t="n">
-        <v>6602611.054278261</v>
+        <v>6602715.356141716</v>
       </c>
       <c r="S23" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3457,7 +3461,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>11:46</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3467,12 +3471,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>11:46</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>Sötaktig mild smak (ej bitter)</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3499,7 +3498,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112084040</v>
+        <v>112083737</v>
       </c>
       <c r="B24" t="n">
         <v>98535</v>
@@ -3532,7 +3531,16 @@
           <t>Schreb.</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3540,13 +3548,13 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>663584.9559231531</v>
+        <v>663545.1917381487</v>
       </c>
       <c r="R24" t="n">
-        <v>6602703.52117154</v>
+        <v>6602752.072187248</v>
       </c>
       <c r="S24" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3612,7 +3620,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112084114</v>
+        <v>112083991</v>
       </c>
       <c r="B25" t="n">
         <v>98535</v>
@@ -3647,32 +3655,28 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>300</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>Upplands Väsby (Upplands Väsby), Upl</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>663576.8087203993</v>
+        <v>663568.3519142884</v>
       </c>
       <c r="R25" t="n">
-        <v>6602715.356141716</v>
+        <v>6602664.1969273</v>
       </c>
       <c r="S25" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3738,7 +3742,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112083905</v>
+        <v>112083804</v>
       </c>
       <c r="B26" t="n">
         <v>98535</v>
@@ -3773,7 +3777,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>300</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -3781,24 +3785,20 @@
           <t>stjälkar/strån/skott</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>Upplands Väsby (Upplands Väsby), Upl</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>663567.9108240836</v>
+        <v>663571.7306570449</v>
       </c>
       <c r="R26" t="n">
-        <v>6602721.063539478</v>
+        <v>6602738.498618284</v>
       </c>
       <c r="S26" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112083991</v>
+        <v>112083905</v>
       </c>
       <c r="B27" t="n">
         <v>98535</v>
@@ -3899,7 +3899,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>400</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -3907,20 +3907,24 @@
           <t>stjälkar/strån/skott</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P27" t="inlineStr">
         <is>
           <t>Upplands Väsby (Upplands Väsby), Upl</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>663568.3519142884</v>
+        <v>663567.9108240836</v>
       </c>
       <c r="R27" t="n">
-        <v>6602664.1969273</v>
+        <v>6602721.063539478</v>
       </c>
       <c r="S27" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3986,7 +3990,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112083737</v>
+        <v>112084040</v>
       </c>
       <c r="B28" t="n">
         <v>98535</v>
@@ -4019,16 +4023,7 @@
           <t>Schreb.</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
@@ -4036,13 +4031,13 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>663545.1917381487</v>
+        <v>663584.9559231531</v>
       </c>
       <c r="R28" t="n">
-        <v>6602752.072187248</v>
+        <v>6602703.52117154</v>
       </c>
       <c r="S28" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -4108,7 +4103,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112083804</v>
+        <v>112083958</v>
       </c>
       <c r="B29" t="n">
         <v>98535</v>
@@ -4143,28 +4138,32 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr"/>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P29" t="inlineStr">
         <is>
           <t>Upplands Väsby (Upplands Väsby), Upl</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>663571.7306570449</v>
+        <v>663551.019940288</v>
       </c>
       <c r="R29" t="n">
-        <v>6602738.498618284</v>
+        <v>6602700.011799707</v>
       </c>
       <c r="S29" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -4230,10 +4229,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112083958</v>
+        <v>112084535</v>
       </c>
       <c r="B30" t="n">
-        <v>98535</v>
+        <v>88899</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4242,55 +4241,51 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>222498</v>
+        <v>3286</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>80</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Upplands Väsby (Upplands Väsby), Upl</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>663551.019940288</v>
+        <v>663374.2695844367</v>
       </c>
       <c r="R30" t="n">
-        <v>6602700.011799707</v>
+        <v>6602611.054278261</v>
       </c>
       <c r="S30" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -4319,7 +4314,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:46</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4329,7 +4324,12 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:46</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>Sötaktig mild smak (ej bitter)</t>
         </is>
       </c>
       <c r="AD30" t="b">

--- a/artfynd/A 33062-2023.xlsx
+++ b/artfynd/A 33062-2023.xlsx
@@ -2902,7 +2902,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111927215</v>
+        <v>111926769</v>
       </c>
       <c r="B19" t="n">
         <v>90658</v>
@@ -2935,16 +2935,7 @@
           <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2952,10 +2943,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>663485.6413922446</v>
+        <v>663476</v>
       </c>
       <c r="R19" t="n">
-        <v>6602647.390513759</v>
+        <v>6602651</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2985,19 +2976,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA19" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -3024,10 +3005,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111929648</v>
+        <v>111926622</v>
       </c>
       <c r="B20" t="n">
-        <v>90655</v>
+        <v>90658</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -3036,37 +3017,28 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>150</v>
+        <v>4361</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Grangråticka</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Boletopsis leucomelaena</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Pers.) Fayod</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -3074,10 +3046,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>663509.4011657666</v>
+        <v>663452</v>
       </c>
       <c r="R20" t="n">
-        <v>6602732.737488487</v>
+        <v>6602676</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -3107,19 +3079,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA20" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3146,10 +3108,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111926622</v>
+        <v>111929648</v>
       </c>
       <c r="B21" t="n">
-        <v>90658</v>
+        <v>90655</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3158,28 +3120,37 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4361</v>
+        <v>150</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Grangråticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Boletopsis leucomelaena</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
+          <t>(Pers.) Fayod</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -3187,10 +3158,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>663452.3464515609</v>
+        <v>663509</v>
       </c>
       <c r="R21" t="n">
-        <v>6602675.90838708</v>
+        <v>6602733</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3220,19 +3191,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA21" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3259,7 +3220,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111926769</v>
+        <v>111927215</v>
       </c>
       <c r="B22" t="n">
         <v>90658</v>
@@ -3292,7 +3253,16 @@
           <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3300,10 +3270,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>663476.3239106013</v>
+        <v>663486</v>
       </c>
       <c r="R22" t="n">
-        <v>6602651.048317727</v>
+        <v>6602647</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3333,19 +3303,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA22" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3372,7 +3332,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112084114</v>
+        <v>112083804</v>
       </c>
       <c r="B23" t="n">
         <v>98535</v>
@@ -3407,32 +3367,28 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>300</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Upplands Väsby (Upplands Väsby), Upl</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>663576.8087203993</v>
+        <v>663572</v>
       </c>
       <c r="R23" t="n">
-        <v>6602715.356141716</v>
+        <v>6602738</v>
       </c>
       <c r="S23" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3459,19 +3415,9 @@
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA23" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3498,7 +3444,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112083737</v>
+        <v>112083958</v>
       </c>
       <c r="B24" t="n">
         <v>98535</v>
@@ -3533,28 +3479,32 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr"/>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P24" t="inlineStr">
         <is>
           <t>Upplands Väsby (Upplands Väsby), Upl</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>663545.1917381487</v>
+        <v>663551</v>
       </c>
       <c r="R24" t="n">
-        <v>6602752.072187248</v>
+        <v>6602700</v>
       </c>
       <c r="S24" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3581,19 +3531,9 @@
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA24" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3620,7 +3560,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112083991</v>
+        <v>112084114</v>
       </c>
       <c r="B25" t="n">
         <v>98535</v>
@@ -3655,28 +3595,32 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr"/>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr">
         <is>
           <t>Upplands Väsby (Upplands Väsby), Upl</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>663568.3519142884</v>
+        <v>663577</v>
       </c>
       <c r="R25" t="n">
-        <v>6602664.1969273</v>
+        <v>6602715</v>
       </c>
       <c r="S25" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3703,19 +3647,9 @@
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA25" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3742,10 +3676,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112083804</v>
+        <v>112084535</v>
       </c>
       <c r="B26" t="n">
-        <v>98535</v>
+        <v>88899</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3754,35 +3688,35 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>222498</v>
+        <v>3286</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>80</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
@@ -3792,10 +3726,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>663571.7306570449</v>
+        <v>663374</v>
       </c>
       <c r="R26" t="n">
-        <v>6602738.498618284</v>
+        <v>6602611</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3827,7 +3761,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:46</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3837,7 +3771,12 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:46</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>Sötaktig mild smak (ej bitter)</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3864,7 +3803,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112083905</v>
+        <v>112084040</v>
       </c>
       <c r="B27" t="n">
         <v>98535</v>
@@ -3897,34 +3836,21 @@
           <t>Schreb.</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
           <t>Upplands Väsby (Upplands Väsby), Upl</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>663567.9108240836</v>
+        <v>663585</v>
       </c>
       <c r="R27" t="n">
-        <v>6602721.063539478</v>
+        <v>6602704</v>
       </c>
       <c r="S27" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3951,19 +3877,9 @@
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA27" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3990,7 +3906,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112084040</v>
+        <v>112083737</v>
       </c>
       <c r="B28" t="n">
         <v>98535</v>
@@ -4023,7 +3939,16 @@
           <t>Schreb.</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
@@ -4031,13 +3956,13 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>663584.9559231531</v>
+        <v>663545</v>
       </c>
       <c r="R28" t="n">
-        <v>6602703.52117154</v>
+        <v>6602752</v>
       </c>
       <c r="S28" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -4064,19 +3989,9 @@
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA28" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -4103,7 +4018,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112083958</v>
+        <v>112083905</v>
       </c>
       <c r="B29" t="n">
         <v>98535</v>
@@ -4138,12 +4053,12 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>400</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>stjälkar/strån/skott</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -4157,10 +4072,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>663551.019940288</v>
+        <v>663568</v>
       </c>
       <c r="R29" t="n">
-        <v>6602700.011799707</v>
+        <v>6602721</v>
       </c>
       <c r="S29" t="n">
         <v>5</v>
@@ -4190,19 +4105,9 @@
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA29" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AB29" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4229,10 +4134,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112084535</v>
+        <v>112083991</v>
       </c>
       <c r="B30" t="n">
-        <v>88899</v>
+        <v>98535</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4241,35 +4146,35 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>3286</v>
+        <v>222498</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>300</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>stjälkar/strån/skott</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
@@ -4279,10 +4184,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>663374.2695844367</v>
+        <v>663568</v>
       </c>
       <c r="R30" t="n">
-        <v>6602611.054278261</v>
+        <v>6602664</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4312,24 +4217,9 @@
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>11:46</t>
-        </is>
-      </c>
       <c r="AA30" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AB30" t="inlineStr">
-        <is>
-          <t>11:46</t>
-        </is>
-      </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>Sötaktig mild smak (ej bitter)</t>
         </is>
       </c>
       <c r="AD30" t="b">

--- a/artfynd/A 33062-2023.xlsx
+++ b/artfynd/A 33062-2023.xlsx
@@ -2902,10 +2902,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111926769</v>
+        <v>111927215</v>
       </c>
       <c r="B19" t="n">
-        <v>90658</v>
+        <v>90792</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2935,7 +2935,16 @@
           <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2943,10 +2952,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>663476</v>
+        <v>663486</v>
       </c>
       <c r="R19" t="n">
-        <v>6602651</v>
+        <v>6602647</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -3008,7 +3017,7 @@
         <v>111926622</v>
       </c>
       <c r="B20" t="n">
-        <v>90658</v>
+        <v>90792</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -3111,7 +3120,7 @@
         <v>111929648</v>
       </c>
       <c r="B21" t="n">
-        <v>90655</v>
+        <v>90789</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3220,10 +3229,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111927215</v>
+        <v>111926769</v>
       </c>
       <c r="B22" t="n">
-        <v>90658</v>
+        <v>90792</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3253,16 +3262,7 @@
           <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3270,10 +3270,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>663486</v>
+        <v>663476</v>
       </c>
       <c r="R22" t="n">
-        <v>6602647</v>
+        <v>6602651</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3332,10 +3332,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112083804</v>
+        <v>112083958</v>
       </c>
       <c r="B23" t="n">
-        <v>98535</v>
+        <v>98961</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3367,28 +3367,32 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr"/>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Upplands Väsby (Upplands Väsby), Upl</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>663572</v>
+        <v>663551</v>
       </c>
       <c r="R23" t="n">
-        <v>6602738</v>
+        <v>6602700</v>
       </c>
       <c r="S23" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3444,10 +3448,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112083958</v>
+        <v>112083905</v>
       </c>
       <c r="B24" t="n">
-        <v>98535</v>
+        <v>98961</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3479,12 +3483,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>400</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>stjälkar/strån/skott</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -3498,10 +3502,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>663551</v>
+        <v>663568</v>
       </c>
       <c r="R24" t="n">
-        <v>6602700</v>
+        <v>6602721</v>
       </c>
       <c r="S24" t="n">
         <v>5</v>
@@ -3563,7 +3567,7 @@
         <v>112084114</v>
       </c>
       <c r="B25" t="n">
-        <v>98535</v>
+        <v>98961</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3679,7 +3683,7 @@
         <v>112084535</v>
       </c>
       <c r="B26" t="n">
-        <v>88899</v>
+        <v>89033</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3803,10 +3807,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112084040</v>
+        <v>112083737</v>
       </c>
       <c r="B27" t="n">
-        <v>98535</v>
+        <v>98961</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3836,7 +3840,16 @@
           <t>Schreb.</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
@@ -3844,13 +3857,13 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>663585</v>
+        <v>663545</v>
       </c>
       <c r="R27" t="n">
-        <v>6602704</v>
+        <v>6602752</v>
       </c>
       <c r="S27" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3906,10 +3919,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112083737</v>
+        <v>112083991</v>
       </c>
       <c r="B28" t="n">
-        <v>98535</v>
+        <v>98961</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3941,7 +3954,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>300</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -3956,13 +3969,13 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>663545</v>
+        <v>663568</v>
       </c>
       <c r="R28" t="n">
-        <v>6602752</v>
+        <v>6602664</v>
       </c>
       <c r="S28" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -4018,10 +4031,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112083905</v>
+        <v>112084040</v>
       </c>
       <c r="B29" t="n">
-        <v>98535</v>
+        <v>98961</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -4051,34 +4064,21 @@
           <t>Schreb.</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>Upplands Väsby (Upplands Väsby), Upl</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>663568</v>
+        <v>663585</v>
       </c>
       <c r="R29" t="n">
-        <v>6602721</v>
+        <v>6602704</v>
       </c>
       <c r="S29" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -4134,10 +4134,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112083991</v>
+        <v>112083804</v>
       </c>
       <c r="B30" t="n">
-        <v>98535</v>
+        <v>98961</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4184,10 +4184,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>663568</v>
+        <v>663572</v>
       </c>
       <c r="R30" t="n">
-        <v>6602664</v>
+        <v>6602738</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>

--- a/artfynd/A 33062-2023.xlsx
+++ b/artfynd/A 33062-2023.xlsx
@@ -3448,7 +3448,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112083905</v>
+        <v>112084114</v>
       </c>
       <c r="B24" t="n">
         <v>98961</v>
@@ -3483,12 +3483,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>663568</v>
+        <v>663577</v>
       </c>
       <c r="R24" t="n">
-        <v>6602721</v>
+        <v>6602715</v>
       </c>
       <c r="S24" t="n">
         <v>5</v>
@@ -3564,7 +3564,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112084114</v>
+        <v>112083905</v>
       </c>
       <c r="B25" t="n">
         <v>98961</v>
@@ -3599,12 +3599,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>400</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>stjälkar/strån/skott</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -3618,10 +3618,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>663577</v>
+        <v>663568</v>
       </c>
       <c r="R25" t="n">
-        <v>6602715</v>
+        <v>6602721</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>

--- a/artfynd/A 33062-2023.xlsx
+++ b/artfynd/A 33062-2023.xlsx
@@ -2902,10 +2902,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111927215</v>
+        <v>111926622</v>
       </c>
       <c r="B19" t="n">
-        <v>90792</v>
+        <v>90806</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2935,16 +2935,7 @@
           <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2952,10 +2943,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>663486</v>
+        <v>663452</v>
       </c>
       <c r="R19" t="n">
-        <v>6602647</v>
+        <v>6602676</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -3014,10 +3005,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111926622</v>
+        <v>111926769</v>
       </c>
       <c r="B20" t="n">
-        <v>90792</v>
+        <v>90806</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -3055,10 +3046,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>663452</v>
+        <v>663476</v>
       </c>
       <c r="R20" t="n">
-        <v>6602676</v>
+        <v>6602651</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -3120,7 +3111,7 @@
         <v>111929648</v>
       </c>
       <c r="B21" t="n">
-        <v>90789</v>
+        <v>90803</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3229,10 +3220,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111926769</v>
+        <v>111927215</v>
       </c>
       <c r="B22" t="n">
-        <v>90792</v>
+        <v>90806</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3262,7 +3253,16 @@
           <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3270,10 +3270,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>663476</v>
+        <v>663486</v>
       </c>
       <c r="R22" t="n">
-        <v>6602651</v>
+        <v>6602647</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3332,10 +3332,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112083958</v>
+        <v>112083905</v>
       </c>
       <c r="B23" t="n">
-        <v>98961</v>
+        <v>98980</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3367,12 +3367,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>400</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>stjälkar/strån/skott</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -3386,10 +3386,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>663551</v>
+        <v>663568</v>
       </c>
       <c r="R23" t="n">
-        <v>6602700</v>
+        <v>6602721</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -3448,10 +3448,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112084114</v>
+        <v>112084535</v>
       </c>
       <c r="B24" t="n">
-        <v>98961</v>
+        <v>89047</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3460,55 +3460,51 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>222498</v>
+        <v>3286</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>80</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>Upplands Väsby (Upplands Väsby), Upl</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>663577</v>
+        <v>663374</v>
       </c>
       <c r="R24" t="n">
-        <v>6602715</v>
+        <v>6602611</v>
       </c>
       <c r="S24" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3535,9 +3531,24 @@
           <t>2023-09-14</t>
         </is>
       </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>11:46</t>
+        </is>
+      </c>
       <c r="AA24" t="inlineStr">
         <is>
           <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>11:46</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>Sötaktig mild smak (ej bitter)</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3564,10 +3575,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112083905</v>
+        <v>112084040</v>
       </c>
       <c r="B25" t="n">
-        <v>98961</v>
+        <v>98980</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3597,34 +3608,21 @@
           <t>Schreb.</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>Upplands Väsby (Upplands Väsby), Upl</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>663568</v>
+        <v>663585</v>
       </c>
       <c r="R25" t="n">
-        <v>6602721</v>
+        <v>6602704</v>
       </c>
       <c r="S25" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3680,10 +3678,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112084535</v>
+        <v>112084114</v>
       </c>
       <c r="B26" t="n">
-        <v>89033</v>
+        <v>98980</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3692,51 +3690,55 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>3286</v>
+        <v>222498</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr"/>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P26" t="inlineStr">
         <is>
           <t>Upplands Väsby (Upplands Väsby), Upl</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>663374</v>
+        <v>663577</v>
       </c>
       <c r="R26" t="n">
-        <v>6602611</v>
+        <v>6602715</v>
       </c>
       <c r="S26" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3763,24 +3765,9 @@
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>11:46</t>
-        </is>
-      </c>
       <c r="AA26" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>11:46</t>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>Sötaktig mild smak (ej bitter)</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3810,7 +3797,7 @@
         <v>112083737</v>
       </c>
       <c r="B27" t="n">
-        <v>98961</v>
+        <v>98980</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3919,10 +3906,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112083991</v>
+        <v>112083958</v>
       </c>
       <c r="B28" t="n">
-        <v>98961</v>
+        <v>98980</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3954,28 +3941,32 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr"/>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P28" t="inlineStr">
         <is>
           <t>Upplands Väsby (Upplands Väsby), Upl</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>663568</v>
+        <v>663551</v>
       </c>
       <c r="R28" t="n">
-        <v>6602664</v>
+        <v>6602700</v>
       </c>
       <c r="S28" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -4031,10 +4022,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112084040</v>
+        <v>112083804</v>
       </c>
       <c r="B29" t="n">
-        <v>98961</v>
+        <v>98980</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -4064,7 +4055,16 @@
           <t>Schreb.</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
@@ -4072,10 +4072,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>663585</v>
+        <v>663572</v>
       </c>
       <c r="R29" t="n">
-        <v>6602704</v>
+        <v>6602738</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4134,10 +4134,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112083804</v>
+        <v>112083991</v>
       </c>
       <c r="B30" t="n">
-        <v>98961</v>
+        <v>98980</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4184,10 +4184,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>663572</v>
+        <v>663568</v>
       </c>
       <c r="R30" t="n">
-        <v>6602738</v>
+        <v>6602664</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>

--- a/artfynd/A 33062-2023.xlsx
+++ b/artfynd/A 33062-2023.xlsx
@@ -3108,10 +3108,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111929648</v>
+        <v>111927215</v>
       </c>
       <c r="B21" t="n">
-        <v>90803</v>
+        <v>90806</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3120,25 +3120,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>150</v>
+        <v>4361</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Grangråticka</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Boletopsis leucomelaena</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Pers.) Fayod</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -3158,10 +3158,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>663509</v>
+        <v>663486</v>
       </c>
       <c r="R21" t="n">
-        <v>6602733</v>
+        <v>6602647</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3220,10 +3220,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111927215</v>
+        <v>111929648</v>
       </c>
       <c r="B22" t="n">
-        <v>90806</v>
+        <v>90803</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3232,25 +3232,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4361</v>
+        <v>150</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Grangråticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Boletopsis leucomelaena</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Pers.) Fayod</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -3270,10 +3270,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>663486</v>
+        <v>663509</v>
       </c>
       <c r="R22" t="n">
-        <v>6602647</v>
+        <v>6602733</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3332,7 +3332,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112083905</v>
+        <v>112084114</v>
       </c>
       <c r="B23" t="n">
         <v>98980</v>
@@ -3367,12 +3367,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -3386,10 +3386,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>663568</v>
+        <v>663577</v>
       </c>
       <c r="R23" t="n">
-        <v>6602721</v>
+        <v>6602715</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -3448,10 +3448,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112084535</v>
+        <v>112083905</v>
       </c>
       <c r="B24" t="n">
-        <v>89047</v>
+        <v>98980</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3460,51 +3460,55 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>3286</v>
+        <v>222498</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>400</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr"/>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P24" t="inlineStr">
         <is>
           <t>Upplands Väsby (Upplands Väsby), Upl</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>663374</v>
+        <v>663568</v>
       </c>
       <c r="R24" t="n">
-        <v>6602611</v>
+        <v>6602721</v>
       </c>
       <c r="S24" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3531,24 +3535,9 @@
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>11:46</t>
-        </is>
-      </c>
       <c r="AA24" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>11:46</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>Sötaktig mild smak (ej bitter)</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3575,7 +3564,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112084040</v>
+        <v>112083804</v>
       </c>
       <c r="B25" t="n">
         <v>98980</v>
@@ -3608,7 +3597,16 @@
           <t>Schreb.</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
@@ -3616,10 +3614,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>663585</v>
+        <v>663572</v>
       </c>
       <c r="R25" t="n">
-        <v>6602704</v>
+        <v>6602738</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3678,7 +3676,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112084114</v>
+        <v>112084040</v>
       </c>
       <c r="B26" t="n">
         <v>98980</v>
@@ -3711,34 +3709,21 @@
           <t>Schreb.</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>Upplands Väsby (Upplands Väsby), Upl</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>663577</v>
+        <v>663585</v>
       </c>
       <c r="R26" t="n">
-        <v>6602715</v>
+        <v>6602704</v>
       </c>
       <c r="S26" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3794,7 +3779,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112083737</v>
+        <v>112083991</v>
       </c>
       <c r="B27" t="n">
         <v>98980</v>
@@ -3829,7 +3814,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>300</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -3844,13 +3829,13 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>663545</v>
+        <v>663568</v>
       </c>
       <c r="R27" t="n">
-        <v>6602752</v>
+        <v>6602664</v>
       </c>
       <c r="S27" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3906,7 +3891,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112083958</v>
+        <v>112083737</v>
       </c>
       <c r="B28" t="n">
         <v>98980</v>
@@ -3941,32 +3926,28 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>200</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
           <t>Upplands Väsby (Upplands Väsby), Upl</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>663551</v>
+        <v>663545</v>
       </c>
       <c r="R28" t="n">
-        <v>6602700</v>
+        <v>6602752</v>
       </c>
       <c r="S28" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -4022,7 +4003,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112083804</v>
+        <v>112083958</v>
       </c>
       <c r="B29" t="n">
         <v>98980</v>
@@ -4057,28 +4038,32 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr"/>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P29" t="inlineStr">
         <is>
           <t>Upplands Väsby (Upplands Väsby), Upl</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>663572</v>
+        <v>663551</v>
       </c>
       <c r="R29" t="n">
-        <v>6602738</v>
+        <v>6602700</v>
       </c>
       <c r="S29" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -4134,10 +4119,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112083991</v>
+        <v>112084535</v>
       </c>
       <c r="B30" t="n">
-        <v>98980</v>
+        <v>89047</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4146,35 +4131,35 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>222498</v>
+        <v>3286</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>80</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
@@ -4184,10 +4169,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>663568</v>
+        <v>663374</v>
       </c>
       <c r="R30" t="n">
-        <v>6602664</v>
+        <v>6602611</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4217,9 +4202,24 @@
           <t>2023-09-14</t>
         </is>
       </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>11:46</t>
+        </is>
+      </c>
       <c r="AA30" t="inlineStr">
         <is>
           <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>11:46</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>Sötaktig mild smak (ej bitter)</t>
         </is>
       </c>
       <c r="AD30" t="b">
